--- a/producto_especifico.xlsx
+++ b/producto_especifico.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,146 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>id_articulo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>id_categoria</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ean13</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>precio</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>peso</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>meta_descripcion</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>meta_keywords</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>meta_title</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>nombre</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>descripcion</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>descripcion_short</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0200394023001</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.lafabricadegolosinas.com/api/categories/2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8437006219600</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>32.727273</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.579000</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>king energy bebida energética</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>king energy bebida energética comprar españa</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>king energy</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>King Energy  Bote Pet de 500 ml. Pack de 24 Unidades</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span style="color:#800080;"&gt;&lt;strong&gt;&lt;em&gt;"KING energy, una nueva categoría de bebida que comparte con las bebidas energéticas algunos de sus ingredientes (cafeína, vitaminas del grupo B o la taurina) y se diferencia de ellas por ser SIN GAS, BAJA EN CALORIAS, SABOR afrutado y su COLOR morado. &lt;/em&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="color:#800080;"&gt;&lt;strong&gt;&lt;em&gt;Especialmente pensada para recargar energía, tras esfuerzos mentales o físicos. Se recomienda su consumo muy fría y sin alcohol."&lt;/em&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt; &lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;span style="color:#000000;"&gt;King Energy Botella Pet de 500 ml. Pack de 24 Botellas.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="color:#000000;"&gt;Precio de la unidad: 1,50 euros. IVA incluido&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="color:#800080;"&gt;&lt;strong&gt;&lt;em&gt; &lt;/em&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/producto_especifico.xlsx
+++ b/producto_especifico.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,146 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>id_articulo</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>id_categoria</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ean13</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>precio</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>peso</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>meta_descripcion</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>meta_keywords</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>meta_title</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>descripcion</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>descripcion_short</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>809</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0200394023001</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://www.lafabricadegolosinas.com/api/categories/2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>8437006219600</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>32.727273</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.579000</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>king energy bebida energética</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>king energy bebida energética comprar españa</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>king energy</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>King Energy  Bote Pet de 500 ml. Pack de 24 Unidades</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;&lt;span style="color:#800080;"&gt;&lt;strong&gt;&lt;em&gt;"KING energy, una nueva categoría de bebida que comparte con las bebidas energéticas algunos de sus ingredientes (cafeína, vitaminas del grupo B o la taurina) y se diferencia de ellas por ser SIN GAS, BAJA EN CALORIAS, SABOR afrutado y su COLOR morado. &lt;/em&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="color:#800080;"&gt;&lt;strong&gt;&lt;em&gt;Especialmente pensada para recargar energía, tras esfuerzos mentales o físicos. Se recomienda su consumo muy fría y sin alcohol."&lt;/em&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt; &lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;&lt;span style="color:#000000;"&gt;King Energy Botella Pet de 500 ml. Pack de 24 Botellas.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="color:#000000;"&gt;Precio de la unidad: 1,50 euros. IVA incluido&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="color:#800080;"&gt;&lt;strong&gt;&lt;em&gt; &lt;/em&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/producto_especifico.xlsx
+++ b/producto_especifico.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,146 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>id_articulo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>id_categoria</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ean13</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>precio</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>peso</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>meta_descripcion</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>meta_keywords</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>meta_title</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>nombre</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>descripcion</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>descripcion_short</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0050599901115</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.lafabricadegolosinas.com/api/categories/68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8412541160525</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.360000</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.000000</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>macedonia</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>mariquitas</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>macedonia</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Gominolas Envueltas Jelly Roypas.  Bolsa 1 Kilo</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Bolsa de 1 kilo (150pzs.aprox.) de &lt;strong&gt;gominolas de pectina envueltas individualmente con surtido de varios colores con diferentes sabores... &lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;span style="color:#ff0000;"&gt; &lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;span style="color:#ff0000;"&gt;APTO PARA CELIACOS&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;span style="color:#ff0000;"&gt;APTO LACTOSA&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;&lt;span style="color:#ff0000;"&gt;MARCA ROYPAS&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Roypas Gominolas envueltas Jelly. Bolsa de 1 kilo.&lt;/p&gt;</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/producto_especifico.xlsx
+++ b/producto_especifico.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,146 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>id_articulo</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>id_categoria</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ean13</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>precio</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>peso</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>meta_descripcion</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>meta_keywords</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>meta_title</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>descripcion</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>descripcion_short</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>634</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0050599901115</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://www.lafabricadegolosinas.com/api/categories/68</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>8412541160525</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.360000</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.000000</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>macedonia</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>mariquitas</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>macedonia</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Gominolas Envueltas Jelly Roypas.  Bolsa 1 Kilo</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Bolsa de 1 kilo (150pzs.aprox.) de &lt;strong&gt;gominolas de pectina envueltas individualmente con surtido de varios colores con diferentes sabores... &lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&lt;span style="color:#ff0000;"&gt; &lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&lt;span style="color:#ff0000;"&gt;APTO PARA CELIACOS&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&lt;span style="color:#ff0000;"&gt;APTO LACTOSA&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;&lt;span style="color:#ff0000;"&gt;MARCA ROYPAS&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;Roypas Gominolas envueltas Jelly. Bolsa de 1 kilo.&lt;/p&gt;</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>